--- a/rider/weekly/2016_43.xlsx
+++ b/rider/weekly/2016_43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Weekday</t>
   </si>
@@ -31,16 +31,22 @@
     <t>Pilot Target</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>24 Oct 2016</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>25 Oct 2016</t>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>28 Oct 2016</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>29 Oct 2016</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>30 Oct 2016</t>
   </si>
 </sst>
 </file>
@@ -131,29 +137,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$3</c:f>
+              <c:f>Ridership!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24 Oct 2016</c:v>
+                  <c:v>28 Oct 2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25 Oct 2016</c:v>
+                  <c:v>29 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$3</c:f>
+              <c:f>Ridership!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -177,29 +189,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$3</c:f>
+              <c:f>Ridership!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24 Oct 2016</c:v>
+                  <c:v>28 Oct 2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25 Oct 2016</c:v>
+                  <c:v>29 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$3</c:f>
+              <c:f>Ridership!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>113.81</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119.97</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -223,29 +241,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$3</c:f>
+              <c:f>Ridership!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24 Oct 2016</c:v>
+                  <c:v>28 Oct 2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25 Oct 2016</c:v>
+                  <c:v>29 Oct 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30 Oct 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$3</c:f>
+              <c:f>Ridership!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>87.21</c:v>
+                  <c:v>87.84999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.37</c:v>
+                  <c:v>88.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.18000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,13 +362,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -652,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="D2">
-        <v>113.81</v>
+        <v>279</v>
       </c>
       <c r="E2">
-        <v>87.21</v>
+        <v>87.84999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -707,13 +731,30 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>119.97</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>87.37</v>
+        <v>88.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4">
+        <v>88.18000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/rider/weekly/2016_43.xlsx
+++ b/rider/weekly/2016_43.xlsx
@@ -159,10 +159,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
@@ -211,10 +211,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
@@ -714,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E2">
         <v>87.84999999999999</v>
@@ -731,10 +731,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>88.02</v>
